--- a/temp/editor_schedule.xlsx
+++ b/temp/editor_schedule.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="18402" documentId="11_17BC734716D868B7AFCD0CBB08588D85EADB166A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF783F72-1778-499C-8224-88B7F1E68C61}"/>
+  <xr:revisionPtr revIDLastSave="18420" documentId="11_17BC734716D868B7AFCD0CBB08588D85EADB166A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA05B98D-7497-4F6D-AA73-00CBC5216914}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="30.10.2024" sheetId="497" r:id="rId1"/>
+    <sheet name="31.10.2024" sheetId="498" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="340">
   <si>
     <t>Лист замен занятий</t>
   </si>
@@ -775,6 +776,285 @@
   </si>
   <si>
     <t>Астрономия</t>
+  </si>
+  <si>
+    <t>на 31.10.2024 г. (четверг) Неделя 2.</t>
+  </si>
+  <si>
+    <t>ТЭМ-51</t>
+  </si>
+  <si>
+    <t>Орг.раб.по устр.неполад.</t>
+  </si>
+  <si>
+    <t>Осущ.тек.монитор.сост.сист.авт.</t>
+  </si>
+  <si>
+    <t>РЦ-4</t>
+  </si>
+  <si>
+    <t>Осн.психологии</t>
+  </si>
+  <si>
+    <t>Рогова А.Ф.</t>
+  </si>
+  <si>
+    <t>Ефимова Ю.А.</t>
+  </si>
+  <si>
+    <t>Орг.лаб.произв.деят.</t>
+  </si>
+  <si>
+    <t>Учет кред.опер.банка</t>
+  </si>
+  <si>
+    <t>Фризен Л.Н.</t>
+  </si>
+  <si>
+    <t>С/з 3</t>
+  </si>
+  <si>
+    <t>Орг.безнал. расчетов</t>
+  </si>
+  <si>
+    <t>Леденёва О.С.</t>
+  </si>
+  <si>
+    <t>Внукова В.В.</t>
+  </si>
+  <si>
+    <t>Чит.з</t>
+  </si>
+  <si>
+    <t>ДОУ1-92</t>
+  </si>
+  <si>
+    <t>Орг-ция секретар.обслуж.</t>
+  </si>
+  <si>
+    <t>Слуцкая Н.В.</t>
+  </si>
+  <si>
+    <t>Управ-ние персоналом</t>
+  </si>
+  <si>
+    <t>Рус.яз. в ПД</t>
+  </si>
+  <si>
+    <t>Сост. и оформл.ОРД</t>
+  </si>
+  <si>
+    <t>Правовое обесп. проф.деятельности</t>
+  </si>
+  <si>
+    <t>Вып-ние машинопис.работ</t>
+  </si>
+  <si>
+    <t>Котляр Е.В.</t>
+  </si>
+  <si>
+    <t>без аудито</t>
+  </si>
+  <si>
+    <t>Б.А.</t>
+  </si>
+  <si>
+    <t>Рудакова О.И.</t>
+  </si>
+  <si>
+    <t>Обеспеч.качес.функцианиров.компьют. систем.</t>
+  </si>
+  <si>
+    <t>Эл-ты высшей математики</t>
+  </si>
+  <si>
+    <t>Рушковская Т.Ю.</t>
+  </si>
+  <si>
+    <t>Теория вероят.и математ.статистика</t>
+  </si>
+  <si>
+    <t>Овсянникова А.А.</t>
+  </si>
+  <si>
+    <t>Орг.раб.структур.подразделения</t>
+  </si>
+  <si>
+    <t>БМ-224</t>
+  </si>
+  <si>
+    <t>Царегородцева Е.В.</t>
+  </si>
+  <si>
+    <t>Управ.технол.процессом</t>
+  </si>
+  <si>
+    <t>Гербсоммер А.В.</t>
+  </si>
+  <si>
+    <t>БХ2-32</t>
+  </si>
+  <si>
+    <t>Пром. безопасность</t>
+  </si>
+  <si>
+    <t>Тюкина Л.В.</t>
+  </si>
+  <si>
+    <t>С.з 3к</t>
+  </si>
+  <si>
+    <t>БХ2-33</t>
+  </si>
+  <si>
+    <t>Тех.анализ и контр.пр-ва</t>
+  </si>
+  <si>
+    <t>Федоренко Е.А.</t>
+  </si>
+  <si>
+    <t>БХ-34</t>
+  </si>
+  <si>
+    <t>Осн.эколог.права</t>
+  </si>
+  <si>
+    <t>Моногарова И.В.</t>
+  </si>
+  <si>
+    <t>КСА-262</t>
+  </si>
+  <si>
+    <t>Орг.раб.архива в суде</t>
+  </si>
+  <si>
+    <t>БП1-111</t>
+  </si>
+  <si>
+    <t>Разработ.мобил.приложений</t>
+  </si>
+  <si>
+    <t>С-73</t>
+  </si>
+  <si>
+    <t>Ин.яз.(1)</t>
+  </si>
+  <si>
+    <t>С-74</t>
+  </si>
+  <si>
+    <t>Вып.монт.КИП и эл.схем сист.авт.</t>
+  </si>
+  <si>
+    <t>Борисова Л.В.</t>
+  </si>
+  <si>
+    <t>Осн.инж.геологии</t>
+  </si>
+  <si>
+    <t>Электротех.и электрон.</t>
+  </si>
+  <si>
+    <t>Рак А.П.</t>
+  </si>
+  <si>
+    <t>История России</t>
+  </si>
+  <si>
+    <t>Жолудева С.А.</t>
+  </si>
+  <si>
+    <t>ТО-82</t>
+  </si>
+  <si>
+    <t>Орг.и управ. раб.труд.коллект.</t>
+  </si>
+  <si>
+    <t>Наладка и испытания теплотех.оборуд.</t>
+  </si>
+  <si>
+    <t>Экск</t>
+  </si>
+  <si>
+    <t>Техн.ремонта теплотех.оборуд.</t>
+  </si>
+  <si>
+    <t>Горобей С.С.</t>
+  </si>
+  <si>
+    <t>Л1-13</t>
+  </si>
+  <si>
+    <t>Л2-13</t>
+  </si>
+  <si>
+    <t>Общ.и неорган.химия</t>
+  </si>
+  <si>
+    <t>ВР по проф. Оператор тех.установки</t>
+  </si>
+  <si>
+    <t>Управ.перс.структ.подразд.</t>
+  </si>
+  <si>
+    <t>ЭКСКУР</t>
+  </si>
+  <si>
+    <t>Аналитич.химия</t>
+  </si>
+  <si>
+    <t>Б.А.1</t>
+  </si>
+  <si>
+    <t>Автоматизация бух.и нал.учета</t>
+  </si>
+  <si>
+    <t>Орг.и планир. налог.деят-ти</t>
+  </si>
+  <si>
+    <t>ББ-124</t>
+  </si>
+  <si>
+    <t>Останина Н.С.</t>
+  </si>
+  <si>
+    <t>Степаненко И.Б.</t>
+  </si>
+  <si>
+    <t>Тех.диагност.и ремонт эл/оборуд.</t>
+  </si>
+  <si>
+    <t>Козлюк А.С.</t>
+  </si>
+  <si>
+    <t>б.а.4</t>
+  </si>
+  <si>
+    <t>Учет и реализ.эл.энергии</t>
+  </si>
+  <si>
+    <t>АСУ в эл/энергосистемах</t>
+  </si>
+  <si>
+    <t>КИП (МДК.02.02)</t>
+  </si>
+  <si>
+    <t>УП.02</t>
+  </si>
+  <si>
+    <t>ЭТ-133</t>
+  </si>
+  <si>
+    <t>Мир.культ.проц.</t>
+  </si>
+  <si>
+    <t>Морозова Т.А.</t>
+  </si>
+  <si>
+    <t>БЮ-154</t>
+  </si>
+  <si>
+    <t>Конституц.право</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1106,6 +1386,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1340,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF51B5C-9409-4714-898E-374F823386C5}">
   <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85:H86"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1359,32 +1645,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
-      <c r="A2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="A2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
@@ -1399,28 +1685,28 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="30" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="27"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -5069,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="I119" s="22" t="s">
         <v>183</v>
@@ -5101,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="I120" s="22" t="s">
         <v>183</v>
@@ -6772,6 +7058,5631 @@
       </c>
       <c r="J172" s="19">
         <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D425D345-71E7-45B5-A9E5-B9852DE6DD40}">
+  <dimension ref="A1:J177"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D169" sqref="D169"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="22.5">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75">
+      <c r="A2" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" spans="1:10" ht="15">
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="12">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="12">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="12">
+        <v>4</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="12">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12">
+        <v>6</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="J12" s="14">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="14">
+        <v>413</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="12">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="14">
+        <v>543</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="12">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="12">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="14">
+        <v>543</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="12">
+        <v>3</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="14">
+        <v>301</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="12">
+        <v>4</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" s="14">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="14">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="14">
+        <v>212</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="14">
+        <v>301</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="12">
+        <v>4</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="14">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="12">
+        <v>5</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="14">
+        <v>538</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="12">
+        <v>6</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A25" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="12">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F25" s="14">
+        <v>124</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="J25" s="14">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="12">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="14">
+        <v>124</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="J26" s="14">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="12">
+        <v>3</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="J27" s="14">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="12">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J28" s="14">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="12">
+        <v>2</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="12">
+        <v>3</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="14">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="12">
+        <v>3</v>
+      </c>
+      <c r="C31" s="11">
+        <v>2</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="14">
+        <v>514</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="12">
+        <v>5</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="14">
+        <v>226</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A33" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="12">
+        <v>6</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="14">
+        <v>309</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A34" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" s="12">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F34" s="14">
+        <v>522</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A35" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B35" s="12">
+        <v>2</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="14">
+        <v>533</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J35" s="14">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="12">
+        <v>3</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="14">
+        <v>314</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="14">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="12">
+        <v>4</v>
+      </c>
+      <c r="C37" s="11">
+        <v>2</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="14">
+        <v>522</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A38" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="12">
+        <v>1</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="13">
+        <v>1</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="14">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A39" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="12">
+        <v>2</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="13">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="J39" s="14">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A40" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="12">
+        <v>3</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F40" s="14">
+        <v>522</v>
+      </c>
+      <c r="G40" s="13">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J40" s="14">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A41" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="12">
+        <v>4</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" s="14">
+        <v>529</v>
+      </c>
+      <c r="G41" s="13">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J41" s="14">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A42" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="12">
+        <v>5</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F42" s="14">
+        <v>522</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A43" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="12">
+        <v>1</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F43" s="14">
+        <v>528</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A44" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="12">
+        <v>2</v>
+      </c>
+      <c r="C44" s="11">
+        <v>2</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="F44" s="14">
+        <v>522</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A45" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="12">
+        <v>3</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A46" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="12">
+        <v>4</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="14">
+        <v>528</v>
+      </c>
+      <c r="G46" s="13">
+        <v>0</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A47" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="12">
+        <v>5</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="13">
+        <v>1</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A48" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="12">
+        <v>5</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="13">
+        <v>2</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" s="14">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A49" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="12">
+        <v>4</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="14">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="12">
+        <v>2</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="G50" s="13">
+        <v>1</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J50" s="14">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="12">
+        <v>3</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="14">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A52" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="12">
+        <v>4</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F52" s="14">
+        <v>547</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="12">
+        <v>4</v>
+      </c>
+      <c r="C53" s="11">
+        <v>2</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="G53" s="13">
+        <v>2</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J53" s="14">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="12">
+        <v>5</v>
+      </c>
+      <c r="C54" s="11">
+        <v>0</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="G54" s="13">
+        <v>2</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J54" s="14">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A55" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="12">
+        <v>1</v>
+      </c>
+      <c r="C55" s="11">
+        <v>0</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F55" s="14">
+        <v>532</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A56" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="12">
+        <v>2</v>
+      </c>
+      <c r="C56" s="11">
+        <v>0</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A57" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="12">
+        <v>5</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A58" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="12">
+        <v>6</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A59" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="12">
+        <v>1</v>
+      </c>
+      <c r="C59" s="11">
+        <v>2</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A60" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="12">
+        <v>3</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" s="14">
+        <v>528</v>
+      </c>
+      <c r="G60" s="13">
+        <v>1</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="J60" s="14">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A61" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="12">
+        <v>4</v>
+      </c>
+      <c r="C61" s="11">
+        <v>1</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" s="13">
+        <v>1</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J61" s="14">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A62" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="12">
+        <v>1</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="13">
+        <v>0</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="J62" s="14">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A63" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="12">
+        <v>2</v>
+      </c>
+      <c r="C63" s="11">
+        <v>0</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F63" s="14">
+        <v>422</v>
+      </c>
+      <c r="G63" s="13">
+        <v>0</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J63" s="14">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A64" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="12">
+        <v>3</v>
+      </c>
+      <c r="C64" s="11">
+        <v>0</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F64" s="14">
+        <v>422</v>
+      </c>
+      <c r="G64" s="13">
+        <v>0</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J64" s="14">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A65" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="12">
+        <v>3</v>
+      </c>
+      <c r="C65" s="11">
+        <v>0</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F65" s="14">
+        <v>313</v>
+      </c>
+      <c r="G65" s="13">
+        <v>0</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J65" s="14">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A66" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" s="12">
+        <v>3</v>
+      </c>
+      <c r="C66" s="11">
+        <v>0</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F66" s="14">
+        <v>206</v>
+      </c>
+      <c r="G66" s="13">
+        <v>0</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A67" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="12">
+        <v>2</v>
+      </c>
+      <c r="C67" s="11">
+        <v>0</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" s="14">
+        <v>305</v>
+      </c>
+      <c r="G67" s="13">
+        <v>0</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="J67" s="14">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A68" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="12">
+        <v>3</v>
+      </c>
+      <c r="C68" s="11">
+        <v>0</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="14">
+        <v>204</v>
+      </c>
+      <c r="G68" s="13">
+        <v>0</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="J68" s="14">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A69" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" s="12">
+        <v>4</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="13">
+        <v>0</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="J69" s="14">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A70" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70" s="12">
+        <v>1</v>
+      </c>
+      <c r="C70" s="11">
+        <v>0</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F70" s="14">
+        <v>203</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A71" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B71" s="12">
+        <v>2</v>
+      </c>
+      <c r="C71" s="11">
+        <v>0</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A72" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B72" s="12">
+        <v>3</v>
+      </c>
+      <c r="C72" s="11">
+        <v>0</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F72" s="14">
+        <v>305</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A73" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B73" s="12">
+        <v>5</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="13">
+        <v>0</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="J73" s="14">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A74" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B74" s="12">
+        <v>6</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="13">
+        <v>0</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="J74" s="14">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A75" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B75" s="12">
+        <v>3</v>
+      </c>
+      <c r="C75" s="11">
+        <v>0</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G75" s="13">
+        <v>1</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" s="14">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A76" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B76" s="12">
+        <v>5</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="13">
+        <v>2</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" s="14">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A77" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="12">
+        <v>1</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="13">
+        <v>0</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A78" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B78" s="12">
+        <v>4</v>
+      </c>
+      <c r="C78" s="11">
+        <v>1</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F78" s="14">
+        <v>305</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J78" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A79" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="21">
+        <v>1</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="22">
+        <v>1</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I79" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J79" s="16">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A80" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="21">
+        <v>3</v>
+      </c>
+      <c r="C80" s="15">
+        <v>0</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="I80" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="J80" s="16">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A81" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B81" s="21">
+        <v>3</v>
+      </c>
+      <c r="C81" s="15">
+        <v>0</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F81" s="16">
+        <v>533</v>
+      </c>
+      <c r="G81" s="22">
+        <v>2</v>
+      </c>
+      <c r="H81" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="I81" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="J81" s="16">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A82" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B82" s="21">
+        <v>4</v>
+      </c>
+      <c r="C82" s="15">
+        <v>0</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F82" s="16">
+        <v>533</v>
+      </c>
+      <c r="G82" s="22">
+        <v>2</v>
+      </c>
+      <c r="H82" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="I82" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="J82" s="16">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A83" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B83" s="21">
+        <v>6</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="22">
+        <v>1</v>
+      </c>
+      <c r="H83" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="I83" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="J83" s="16">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A84" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B84" s="21">
+        <v>1</v>
+      </c>
+      <c r="C84" s="15">
+        <v>1</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F84" s="16">
+        <v>544</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A85" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B85" s="21">
+        <v>3</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="22">
+        <v>0</v>
+      </c>
+      <c r="H85" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J85" s="16">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A86" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B86" s="21">
+        <v>3</v>
+      </c>
+      <c r="C86" s="15">
+        <v>1</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F86" s="16">
+        <v>547</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A87" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B87" s="21">
+        <v>1</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="22">
+        <v>2</v>
+      </c>
+      <c r="H87" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I87" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J87" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A88" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="21">
+        <v>2</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="22">
+        <v>2</v>
+      </c>
+      <c r="H88" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="I88" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J88" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A89" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" s="21">
+        <v>3</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="22">
+        <v>1</v>
+      </c>
+      <c r="H89" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I89" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="J89" s="16">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A90" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" s="21">
+        <v>3</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="22">
+        <v>2</v>
+      </c>
+      <c r="H90" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I90" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="J90" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A91" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="21">
+        <v>4</v>
+      </c>
+      <c r="C91" s="15">
+        <v>1</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F91" s="16">
+        <v>544</v>
+      </c>
+      <c r="G91" s="22">
+        <v>1</v>
+      </c>
+      <c r="H91" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I91" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="J91" s="16">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A92" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="21">
+        <v>4</v>
+      </c>
+      <c r="C92" s="15">
+        <v>2</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" s="16">
+        <v>543</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A93" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="21">
+        <v>5</v>
+      </c>
+      <c r="C93" s="15">
+        <v>2</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F93" s="16">
+        <v>543</v>
+      </c>
+      <c r="G93" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A94" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="21">
+        <v>6</v>
+      </c>
+      <c r="C94" s="15">
+        <v>0</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F94" s="16">
+        <v>544</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A95" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="21">
+        <v>2</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="22">
+        <v>0</v>
+      </c>
+      <c r="H95" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I95" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J95" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A96" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96" s="21">
+        <v>5</v>
+      </c>
+      <c r="C96" s="15">
+        <v>0</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A97" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B97" s="21">
+        <v>3</v>
+      </c>
+      <c r="C97" s="15">
+        <v>0</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F97" s="16">
+        <v>416</v>
+      </c>
+      <c r="G97" s="22">
+        <v>2</v>
+      </c>
+      <c r="H97" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="I97" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J97" s="16">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A98" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B98" s="21">
+        <v>4</v>
+      </c>
+      <c r="C98" s="15">
+        <v>2</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" s="16">
+        <v>514</v>
+      </c>
+      <c r="G98" s="22">
+        <v>2</v>
+      </c>
+      <c r="H98" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="I98" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J98" s="16">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A99" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B99" s="21">
+        <v>3</v>
+      </c>
+      <c r="C99" s="15">
+        <v>0</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F99" s="16">
+        <v>307</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I99" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J99" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A100" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B100" s="21">
+        <v>4</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="22">
+        <v>0</v>
+      </c>
+      <c r="H100" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="I100" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A101" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B101" s="21">
+        <v>5</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="22">
+        <v>0</v>
+      </c>
+      <c r="H101" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I101" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="J101" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A102" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B102" s="21">
+        <v>2</v>
+      </c>
+      <c r="C102" s="15">
+        <v>0</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F102" s="16">
+        <v>307</v>
+      </c>
+      <c r="G102" s="22">
+        <v>0</v>
+      </c>
+      <c r="H102" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I102" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J102" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A103" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B103" s="21">
+        <v>3</v>
+      </c>
+      <c r="C103" s="15">
+        <v>0</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="F103" s="16">
+        <v>315</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A104" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" s="21">
+        <v>4</v>
+      </c>
+      <c r="C104" s="15">
+        <v>0</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E104" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J104" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A105" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="21">
+        <v>2</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
+      </c>
+      <c r="H105" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I105" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="J105" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A106" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="21">
+        <v>4</v>
+      </c>
+      <c r="C106" s="15">
+        <v>0</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
+      </c>
+      <c r="H106" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="I106" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="J106" s="16">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A107" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="21">
+        <v>5</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="I107" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="J107" s="16">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A108" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B108" s="21">
+        <v>5</v>
+      </c>
+      <c r="C108" s="15">
+        <v>1</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="F108" s="16">
+        <v>310</v>
+      </c>
+      <c r="G108" s="22">
+        <v>1</v>
+      </c>
+      <c r="H108" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I108" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="J108" s="16">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A109" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B109" s="21">
+        <v>6</v>
+      </c>
+      <c r="C109" s="15">
+        <v>1</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="F109" s="16">
+        <v>310</v>
+      </c>
+      <c r="G109" s="22">
+        <v>1</v>
+      </c>
+      <c r="H109" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I109" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="J109" s="16">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A110" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B110" s="21">
+        <v>3</v>
+      </c>
+      <c r="C110" s="15">
+        <v>0</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J110" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A111" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B111" s="21">
+        <v>4</v>
+      </c>
+      <c r="C111" s="15">
+        <v>0</v>
+      </c>
+      <c r="D111" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111" s="16">
+        <v>124</v>
+      </c>
+      <c r="G111" s="22">
+        <v>0</v>
+      </c>
+      <c r="H111" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="I111" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="J111" s="16">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A112" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B112" s="21">
+        <v>5</v>
+      </c>
+      <c r="C112" s="15">
+        <v>0</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F112" s="16">
+        <v>124</v>
+      </c>
+      <c r="G112" s="22">
+        <v>0</v>
+      </c>
+      <c r="H112" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="I112" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="J112" s="16">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A113" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" s="21">
+        <v>1</v>
+      </c>
+      <c r="C113" s="15">
+        <v>0</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F113" s="16">
+        <v>307</v>
+      </c>
+      <c r="G113" s="22">
+        <v>0</v>
+      </c>
+      <c r="H113" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I113" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J113" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A114" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B114" s="21">
+        <v>4</v>
+      </c>
+      <c r="C114" s="15">
+        <v>1</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E114" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F114" s="16">
+        <v>301</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H114" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A115" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B115" s="21">
+        <v>1</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="22">
+        <v>0</v>
+      </c>
+      <c r="H115" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="I115" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J115" s="16">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A116" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B116" s="21">
+        <v>2</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="22">
+        <v>0</v>
+      </c>
+      <c r="H116" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="I116" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J116" s="16">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A117" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B117" s="21">
+        <v>3</v>
+      </c>
+      <c r="C117" s="15">
+        <v>0</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H117" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A118" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B118" s="21">
+        <v>4</v>
+      </c>
+      <c r="C118" s="15">
+        <v>0</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J118" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A119" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B119" s="21">
+        <v>2</v>
+      </c>
+      <c r="C119" s="15">
+        <v>0</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="E119" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F119" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G119" s="22">
+        <v>0</v>
+      </c>
+      <c r="H119" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="I119" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J119" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A120" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B120" s="21">
+        <v>3</v>
+      </c>
+      <c r="C120" s="15">
+        <v>0</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F120" s="16">
+        <v>535</v>
+      </c>
+      <c r="G120" s="22">
+        <v>0</v>
+      </c>
+      <c r="H120" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I120" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J120" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A121" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B121" s="21">
+        <v>4</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G121" s="22">
+        <v>0</v>
+      </c>
+      <c r="H121" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="I121" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="J121" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A122" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B122" s="21">
+        <v>5</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" s="22">
+        <v>0</v>
+      </c>
+      <c r="H122" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="I122" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="J122" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A123" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B123" s="21">
+        <v>4</v>
+      </c>
+      <c r="C123" s="15">
+        <v>0</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E123" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F123" s="16">
+        <v>538</v>
+      </c>
+      <c r="G123" s="22">
+        <v>0</v>
+      </c>
+      <c r="H123" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="I123" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="J123" s="16">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A124" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B124" s="21">
+        <v>2</v>
+      </c>
+      <c r="C124" s="15">
+        <v>1</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E124" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="16">
+        <v>301</v>
+      </c>
+      <c r="G124" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H124" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A125" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B125" s="21">
+        <v>5</v>
+      </c>
+      <c r="C125" s="15">
+        <v>0</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125" s="16">
+        <v>416</v>
+      </c>
+      <c r="G125" s="22">
+        <v>0</v>
+      </c>
+      <c r="H125" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="I125" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="J125" s="16">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A126" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B126" s="21">
+        <v>3</v>
+      </c>
+      <c r="C126" s="15">
+        <v>1</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="E126" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F126" s="16">
+        <v>311</v>
+      </c>
+      <c r="G126" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J126" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A127" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B127" s="21">
+        <v>1</v>
+      </c>
+      <c r="C127" s="15">
+        <v>0</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="G127" s="22">
+        <v>0</v>
+      </c>
+      <c r="H127" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I127" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J127" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A128" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B128" s="21">
+        <v>2</v>
+      </c>
+      <c r="C128" s="15">
+        <v>0</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F128" s="16">
+        <v>529</v>
+      </c>
+      <c r="G128" s="22">
+        <v>0</v>
+      </c>
+      <c r="H128" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I128" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J128" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A129" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B129" s="21">
+        <v>3</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129" s="22">
+        <v>0</v>
+      </c>
+      <c r="H129" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="I129" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J129" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A130" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B130" s="21">
+        <v>3</v>
+      </c>
+      <c r="C130" s="15">
+        <v>0</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F130" s="16">
+        <v>537</v>
+      </c>
+      <c r="G130" s="22">
+        <v>0</v>
+      </c>
+      <c r="H130" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="I130" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J130" s="16">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A131" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B131" s="21">
+        <v>1</v>
+      </c>
+      <c r="C131" s="15">
+        <v>0</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F131" s="16">
+        <v>316</v>
+      </c>
+      <c r="G131" s="22">
+        <v>1</v>
+      </c>
+      <c r="H131" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="I131" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J131" s="16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A132" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B132" s="21">
+        <v>2</v>
+      </c>
+      <c r="C132" s="15">
+        <v>0</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="E132" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F132" s="16">
+        <v>316</v>
+      </c>
+      <c r="G132" s="22">
+        <v>1</v>
+      </c>
+      <c r="H132" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="I132" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J132" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A133" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B133" s="21">
+        <v>3</v>
+      </c>
+      <c r="C133" s="15">
+        <v>0</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="E133" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F133" s="16">
+        <v>316</v>
+      </c>
+      <c r="G133" s="22">
+        <v>0</v>
+      </c>
+      <c r="H133" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="I133" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J133" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A134" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B134" s="21">
+        <v>4</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G134" s="22">
+        <v>0</v>
+      </c>
+      <c r="H134" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="I134" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J134" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A135" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B135" s="21">
+        <v>4</v>
+      </c>
+      <c r="C135" s="15">
+        <v>1</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="E135" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F135" s="16">
+        <v>316</v>
+      </c>
+      <c r="G135" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H135" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A136" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B136" s="21">
+        <v>5</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136" s="22">
+        <v>2</v>
+      </c>
+      <c r="H136" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="I136" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J136" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A137" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B137" s="21">
+        <v>6</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G137" s="22">
+        <v>2</v>
+      </c>
+      <c r="H137" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="I137" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J137" s="16" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A138" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B138" s="21">
+        <v>5</v>
+      </c>
+      <c r="C138" s="15">
+        <v>0</v>
+      </c>
+      <c r="D138" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E138" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="F138" s="16">
+        <v>412</v>
+      </c>
+      <c r="G138" s="22">
+        <v>0</v>
+      </c>
+      <c r="H138" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I138" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="J138" s="16">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A139" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B139" s="21">
+        <v>6</v>
+      </c>
+      <c r="C139" s="15">
+        <v>1</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="E139" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F139" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="G139" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J139" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A140" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B140" s="21">
+        <v>1</v>
+      </c>
+      <c r="C140" s="15">
+        <v>0</v>
+      </c>
+      <c r="D140" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E140" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F140" s="16">
+        <v>421</v>
+      </c>
+      <c r="G140" s="22">
+        <v>0</v>
+      </c>
+      <c r="H140" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I140" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="J140" s="16">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A141" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B141" s="21">
+        <v>4</v>
+      </c>
+      <c r="C141" s="15">
+        <v>2</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E141" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F141" s="16">
+        <v>311</v>
+      </c>
+      <c r="G141" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A142" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B142" s="21">
+        <v>1</v>
+      </c>
+      <c r="C142" s="15">
+        <v>2</v>
+      </c>
+      <c r="D142" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E142" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F142" s="16">
+        <v>515</v>
+      </c>
+      <c r="G142" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A143" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B143" s="21">
+        <v>2</v>
+      </c>
+      <c r="C143" s="15">
+        <v>0</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="E143" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F143" s="16">
+        <v>515</v>
+      </c>
+      <c r="G143" s="22">
+        <v>0</v>
+      </c>
+      <c r="H143" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I143" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="J143" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A144" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B144" s="21">
+        <v>3</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G144" s="22">
+        <v>0</v>
+      </c>
+      <c r="H144" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="I144" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J144" s="16">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A145" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B145" s="21">
+        <v>3</v>
+      </c>
+      <c r="C145" s="15">
+        <v>1</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E145" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F145" s="16">
+        <v>515</v>
+      </c>
+      <c r="G145" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J145" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A146" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B146" s="21">
+        <v>1</v>
+      </c>
+      <c r="C146" s="15">
+        <v>2</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F146" s="16">
+        <v>514</v>
+      </c>
+      <c r="G146" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H146" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A147" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B147" s="21">
+        <v>2</v>
+      </c>
+      <c r="C147" s="15">
+        <v>1</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F147" s="16">
+        <v>514</v>
+      </c>
+      <c r="G147" s="22">
+        <v>1</v>
+      </c>
+      <c r="H147" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="I147" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="J147" s="16">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A148" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B148" s="21">
+        <v>2</v>
+      </c>
+      <c r="C148" s="15">
+        <v>2</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E148" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F148" s="16">
+        <v>542</v>
+      </c>
+      <c r="G148" s="22">
+        <v>2</v>
+      </c>
+      <c r="H148" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I148" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J148" s="16">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A149" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B149" s="21">
+        <v>4</v>
+      </c>
+      <c r="C149" s="15">
+        <v>0</v>
+      </c>
+      <c r="D149" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E149" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F149" s="16">
+        <v>515</v>
+      </c>
+      <c r="G149" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I149" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J149" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A150" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B150" s="21">
+        <v>1</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G150" s="22">
+        <v>0</v>
+      </c>
+      <c r="H150" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="I150" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="J150" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A151" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B151" s="21">
+        <v>5</v>
+      </c>
+      <c r="C151" s="15">
+        <v>0</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E151" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F151" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G151" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I151" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J151" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A152" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B152" s="21">
+        <v>2</v>
+      </c>
+      <c r="C152" s="15">
+        <v>0</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E152" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F152" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="G152" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J152" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A153" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B153" s="21">
+        <v>4</v>
+      </c>
+      <c r="C153" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" s="22">
+        <v>0</v>
+      </c>
+      <c r="H153" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I153" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="J153" s="16">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A154" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B154" s="21">
+        <v>4</v>
+      </c>
+      <c r="C154" s="15">
+        <v>1</v>
+      </c>
+      <c r="D154" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E154" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="F154" s="16">
+        <v>415</v>
+      </c>
+      <c r="G154" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H154" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A155" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B155" s="21">
+        <v>4</v>
+      </c>
+      <c r="C155" s="15">
+        <v>2</v>
+      </c>
+      <c r="D155" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E155" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F155" s="16">
+        <v>413</v>
+      </c>
+      <c r="G155" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H155" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J155" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A156" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B156" s="21">
+        <v>5</v>
+      </c>
+      <c r="C156" s="15">
+        <v>2</v>
+      </c>
+      <c r="D156" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E156" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F156" s="16">
+        <v>413</v>
+      </c>
+      <c r="G156" s="22">
+        <v>2</v>
+      </c>
+      <c r="H156" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I156" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J156" s="16">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A157" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B157" s="21">
+        <v>6</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F157" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" s="22">
+        <v>0</v>
+      </c>
+      <c r="H157" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I157" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="J157" s="16">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A158" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B158" s="21">
+        <v>1</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" s="22">
+        <v>0</v>
+      </c>
+      <c r="H158" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="I158" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="J158" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A159" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B159" s="21">
+        <v>2</v>
+      </c>
+      <c r="C159" s="15">
+        <v>0</v>
+      </c>
+      <c r="D159" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E159" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="F159" s="16">
+        <v>313</v>
+      </c>
+      <c r="G159" s="22">
+        <v>0</v>
+      </c>
+      <c r="H159" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="I159" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="J159" s="16">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A160" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B160" s="21">
+        <v>3</v>
+      </c>
+      <c r="C160" s="15">
+        <v>0</v>
+      </c>
+      <c r="D160" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="E160" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="F160" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G160" s="22">
+        <v>0</v>
+      </c>
+      <c r="H160" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="I160" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="J160" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A161" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B161" s="21">
+        <v>2</v>
+      </c>
+      <c r="C161" s="15">
+        <v>0</v>
+      </c>
+      <c r="D161" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="E161" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="F161" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="G161" s="22">
+        <v>0</v>
+      </c>
+      <c r="H161" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="I161" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="J161" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A162" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B162" s="21">
+        <v>2</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F162" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" s="22">
+        <v>1</v>
+      </c>
+      <c r="H162" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I162" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J162" s="16">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A163" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B163" s="21">
+        <v>2</v>
+      </c>
+      <c r="C163" s="15">
+        <v>2</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E163" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="F163" s="16">
+        <v>427</v>
+      </c>
+      <c r="G163" s="22">
+        <v>2</v>
+      </c>
+      <c r="H163" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I163" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="J163" s="16">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A164" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B164" s="21">
+        <v>3</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" s="22">
+        <v>1</v>
+      </c>
+      <c r="H164" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I164" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="J164" s="16">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A165" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B165" s="21">
+        <v>3</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E165" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F165" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G165" s="22">
+        <v>0</v>
+      </c>
+      <c r="H165" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="I165" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="J165" s="16">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A166" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B166" s="21">
+        <v>4</v>
+      </c>
+      <c r="C166" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E166" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G166" s="22">
+        <v>0</v>
+      </c>
+      <c r="H166" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I166" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="J166" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A167" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B167" s="21">
+        <v>4</v>
+      </c>
+      <c r="C167" s="15">
+        <v>0</v>
+      </c>
+      <c r="D167" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E167" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F167" s="16">
+        <v>307</v>
+      </c>
+      <c r="G167" s="22">
+        <v>0</v>
+      </c>
+      <c r="H167" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I167" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J167" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A168" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B168" s="21">
+        <v>5</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G168" s="22">
+        <v>0</v>
+      </c>
+      <c r="H168" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I168" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J168" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A169" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B169" s="21">
+        <v>1</v>
+      </c>
+      <c r="C169" s="15">
+        <v>2</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="E169" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F169" s="16">
+        <v>6</v>
+      </c>
+      <c r="G169" s="22">
+        <v>2</v>
+      </c>
+      <c r="H169" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="I169" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J169" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A170" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B170" s="21">
+        <v>2</v>
+      </c>
+      <c r="C170" s="15">
+        <v>2</v>
+      </c>
+      <c r="D170" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="E170" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F170" s="16">
+        <v>6</v>
+      </c>
+      <c r="G170" s="22">
+        <v>2</v>
+      </c>
+      <c r="H170" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="I170" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J170" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A171" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B171" s="21">
+        <v>3</v>
+      </c>
+      <c r="C171" s="15">
+        <v>2</v>
+      </c>
+      <c r="D171" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="E171" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F171" s="16">
+        <v>6</v>
+      </c>
+      <c r="G171" s="22">
+        <v>2</v>
+      </c>
+      <c r="H171" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="I171" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J171" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A172" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B172" s="21">
+        <v>4</v>
+      </c>
+      <c r="C172" s="15">
+        <v>1</v>
+      </c>
+      <c r="D172" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="E172" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F172" s="16">
+        <v>6</v>
+      </c>
+      <c r="G172" s="22">
+        <v>1</v>
+      </c>
+      <c r="H172" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="I172" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J172" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A173" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B173" s="21">
+        <v>4</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F173" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173" s="22">
+        <v>2</v>
+      </c>
+      <c r="H173" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I173" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="J173" s="16">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A174" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B174" s="21">
+        <v>5</v>
+      </c>
+      <c r="C174" s="15">
+        <v>1</v>
+      </c>
+      <c r="D174" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="E174" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F174" s="16">
+        <v>6</v>
+      </c>
+      <c r="G174" s="22">
+        <v>1</v>
+      </c>
+      <c r="H174" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="I174" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J174" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A175" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B175" s="21">
+        <v>6</v>
+      </c>
+      <c r="C175" s="15">
+        <v>1</v>
+      </c>
+      <c r="D175" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="E175" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F175" s="16">
+        <v>6</v>
+      </c>
+      <c r="G175" s="22">
+        <v>1</v>
+      </c>
+      <c r="H175" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="I175" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J175" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A176" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B176" s="21">
+        <v>5</v>
+      </c>
+      <c r="C176" s="15">
+        <v>0</v>
+      </c>
+      <c r="D176" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="E176" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="F176" s="16">
+        <v>213</v>
+      </c>
+      <c r="G176" s="22">
+        <v>0</v>
+      </c>
+      <c r="H176" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I176" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="J176" s="16">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A177" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B177" s="20">
+        <v>4</v>
+      </c>
+      <c r="C177" s="17">
+        <v>0</v>
+      </c>
+      <c r="D177" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E177" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F177" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G177" s="18">
+        <v>0</v>
+      </c>
+      <c r="H177" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="I177" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J177" s="19">
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/temp/editor_schedule.xlsx
+++ b/temp/editor_schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="18465" documentId="11_17BC734716D868B7AFCD0CBB08588D85EADB166A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EACB0234-AFE5-4D91-B24D-DC67D3185BD7}"/>
+  <xr:revisionPtr revIDLastSave="18466" documentId="11_17BC734716D868B7AFCD0CBB08588D85EADB166A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDEA64D8-0D4D-4DC1-A3B6-8BFF54CBBED3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="31.10.2024" sheetId="498" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="333">
   <si>
     <t>Лист замен занятий</t>
   </si>
@@ -947,9 +947,6 @@
   </si>
   <si>
     <t>Ковальчук Ю.А.</t>
-  </si>
-  <si>
-    <t>ТСРР КИП (МДК. 03.01)</t>
   </si>
   <si>
     <t>НП-161</t>
@@ -1593,7 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D425D345-71E7-45B5-A9E5-B9852DE6DD40}">
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
@@ -7210,8 +7207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8110D-63C0-445B-8979-0DB4A9B91296}">
   <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10185,7 +10182,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>304</v>
+        <v>167</v>
       </c>
       <c r="I95" s="22" t="s">
         <v>168</v>
@@ -10260,7 +10257,7 @@
     </row>
     <row r="98" spans="1:10" ht="15" customHeight="1">
       <c r="A98" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B98" s="21">
         <v>4</v>
@@ -10269,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E98" s="22" t="s">
         <v>285</v>
@@ -10281,10 +10278,10 @@
         <v>0</v>
       </c>
       <c r="H98" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="I98" s="22" t="s">
         <v>307</v>
-      </c>
-      <c r="I98" s="22" t="s">
-        <v>308</v>
       </c>
       <c r="J98" s="16">
         <v>425</v>
@@ -10292,7 +10289,7 @@
     </row>
     <row r="99" spans="1:10" ht="15" customHeight="1">
       <c r="A99" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B99" s="21">
         <v>5</v>
@@ -10301,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E99" s="22" t="s">
         <v>285</v>
@@ -10452,7 +10449,7 @@
     </row>
     <row r="104" spans="1:10" ht="15" customHeight="1">
       <c r="A104" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B104" s="21">
         <v>3</v>
@@ -10484,7 +10481,7 @@
     </row>
     <row r="105" spans="1:10" ht="15" customHeight="1">
       <c r="A105" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B105" s="21">
         <v>5</v>
@@ -10548,7 +10545,7 @@
     </row>
     <row r="107" spans="1:10" ht="15" customHeight="1">
       <c r="A107" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B107" s="21">
         <v>1</v>
@@ -10580,7 +10577,7 @@
     </row>
     <row r="108" spans="1:10" ht="15" customHeight="1">
       <c r="A108" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B108" s="21">
         <v>2</v>
@@ -10612,7 +10609,7 @@
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1">
       <c r="A109" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B109" s="21">
         <v>4</v>
@@ -10644,7 +10641,7 @@
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1">
       <c r="A110" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B110" s="21">
         <v>4</v>
@@ -10676,7 +10673,7 @@
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
       <c r="A111" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B111" s="21">
         <v>5</v>
@@ -10708,7 +10705,7 @@
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1">
       <c r="A112" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B112" s="21">
         <v>5</v>
@@ -10764,7 +10761,7 @@
         <v>27</v>
       </c>
       <c r="I113" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J113" s="16">
         <v>412</v>
@@ -10796,7 +10793,7 @@
         <v>27</v>
       </c>
       <c r="I114" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J114" s="16">
         <v>412</v>
@@ -10845,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E116" s="22" t="s">
         <v>205</v>
@@ -10909,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E118" s="22" t="s">
         <v>74</v>
@@ -10964,7 +10961,7 @@
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B120" s="21">
         <v>1</v>
@@ -10996,7 +10993,7 @@
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B121" s="21">
         <v>2</v>
@@ -11005,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E121" s="22" t="s">
         <v>205</v>
@@ -11017,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I121" s="22" t="s">
         <v>198</v>
@@ -11028,7 +11025,7 @@
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
       <c r="A122" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B122" s="21">
         <v>4</v>
@@ -11060,7 +11057,7 @@
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1">
       <c r="A123" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B123" s="21">
         <v>5</v>
@@ -11092,7 +11089,7 @@
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1">
       <c r="A124" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B124" s="21">
         <v>3</v>
@@ -11113,7 +11110,7 @@
         <v>2</v>
       </c>
       <c r="H124" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I124" s="22" t="s">
         <v>185</v>
@@ -11124,7 +11121,7 @@
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="A125" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B125" s="21">
         <v>5</v>
@@ -11133,7 +11130,7 @@
         <v>2</v>
       </c>
       <c r="D125" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E125" s="22" t="s">
         <v>185</v>
@@ -11168,7 +11165,7 @@
         <v>27</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F126" s="16">
         <v>427</v>
@@ -11241,10 +11238,10 @@
         <v>0</v>
       </c>
       <c r="H128" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="I128" s="22" t="s">
         <v>319</v>
-      </c>
-      <c r="I128" s="22" t="s">
-        <v>320</v>
       </c>
       <c r="J128" s="16">
         <v>10</v>
@@ -11273,10 +11270,10 @@
         <v>0</v>
       </c>
       <c r="H129" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="I129" s="22" t="s">
         <v>319</v>
-      </c>
-      <c r="I129" s="22" t="s">
-        <v>320</v>
       </c>
       <c r="J129" s="16">
         <v>10</v>
@@ -11305,10 +11302,10 @@
         <v>0</v>
       </c>
       <c r="H130" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="I130" s="22" t="s">
         <v>319</v>
-      </c>
-      <c r="I130" s="22" t="s">
-        <v>320</v>
       </c>
       <c r="J130" s="16">
         <v>10</v>
@@ -11337,10 +11334,10 @@
         <v>0</v>
       </c>
       <c r="H131" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="I131" s="22" t="s">
         <v>319</v>
-      </c>
-      <c r="I131" s="22" t="s">
-        <v>320</v>
       </c>
       <c r="J131" s="16">
         <v>10</v>
@@ -11436,7 +11433,7 @@
         <v>27</v>
       </c>
       <c r="I134" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J134" s="16">
         <v>427</v>
@@ -11549,13 +11546,13 @@
         <v>0</v>
       </c>
       <c r="D138" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E138" s="22" t="s">
         <v>44</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G138" s="22" t="s">
         <v>24</v>
@@ -11581,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="D139" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E139" s="22" t="s">
         <v>44</v>
@@ -11625,10 +11622,10 @@
         <v>0</v>
       </c>
       <c r="H140" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I140" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J140" s="16">
         <v>515</v>
@@ -11657,10 +11654,10 @@
         <v>0</v>
       </c>
       <c r="H141" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I141" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J141" s="16">
         <v>515</v>
@@ -11677,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="D142" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E142" s="22" t="s">
         <v>222</v>
@@ -11709,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E143" s="22" t="s">
         <v>222</v>
@@ -11965,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E151" s="22" t="s">
         <v>198</v>
@@ -12029,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E153" s="22" t="s">
         <v>198</v>
@@ -12084,7 +12081,7 @@
     </row>
     <row r="155" spans="1:10" ht="15" customHeight="1">
       <c r="A155" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B155" s="21">
         <v>1</v>
@@ -12096,7 +12093,7 @@
         <v>31</v>
       </c>
       <c r="E155" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F155" s="16" t="s">
         <v>229</v>
@@ -12116,7 +12113,7 @@
     </row>
     <row r="156" spans="1:10" ht="15" customHeight="1">
       <c r="A156" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B156" s="21">
         <v>2</v>
@@ -12125,10 +12122,10 @@
         <v>1</v>
       </c>
       <c r="D156" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="E156" s="22" t="s">
         <v>330</v>
-      </c>
-      <c r="E156" s="22" t="s">
-        <v>331</v>
       </c>
       <c r="F156" s="16">
         <v>423</v>
@@ -12148,7 +12145,7 @@
     </row>
     <row r="157" spans="1:10" ht="15" customHeight="1">
       <c r="A157" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B157" s="21">
         <v>2</v>
@@ -12157,10 +12154,10 @@
         <v>2</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E157" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F157" s="16">
         <v>424</v>
@@ -12180,7 +12177,7 @@
     </row>
     <row r="158" spans="1:10" ht="15" customHeight="1">
       <c r="A158" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B158" s="21">
         <v>4</v>
@@ -12285,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E161" s="22" t="s">
         <v>295</v>
@@ -12297,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="H161" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I161" s="22" t="s">
         <v>295</v>

--- a/temp/editor_schedule.xlsx
+++ b/temp/editor_schedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="18466" documentId="11_17BC734716D868B7AFCD0CBB08588D85EADB166A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDEA64D8-0D4D-4DC1-A3B6-8BFF54CBBED3}"/>
+  <xr:revisionPtr revIDLastSave="18477" documentId="11_17BC734716D868B7AFCD0CBB08588D85EADB166A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EAA1F75-12B2-4686-A244-334C2E2C3F43}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="31.10.2024" sheetId="498" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="334">
   <si>
     <t>Лист замен занятий</t>
   </si>
@@ -947,6 +947,9 @@
   </si>
   <si>
     <t>Ковальчук Ю.А.</t>
+  </si>
+  <si>
+    <t>Допуски и тех.изм.</t>
   </si>
   <si>
     <t>НП-161</t>
@@ -1357,6 +1360,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,12 +1376,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1607,32 +1610,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
-      <c r="A2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="A2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
@@ -1647,28 +1650,28 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -7205,10 +7208,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C8110D-63C0-445B-8979-0DB4A9B91296}">
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7224,32 +7227,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="22.5">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
@@ -7264,28 +7267,28 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="27" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="24"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -9539,16 +9542,16 @@
         <v>24</v>
       </c>
       <c r="G75" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>293</v>
+        <v>114</v>
       </c>
       <c r="J75" s="14">
-        <v>303</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15" customHeight="1">
@@ -9556,7 +9559,7 @@
         <v>147</v>
       </c>
       <c r="B76" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>24</v>
@@ -9571,48 +9574,48 @@
         <v>24</v>
       </c>
       <c r="G76" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>29</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="J76" s="14">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1">
       <c r="A77" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B77" s="12">
-        <v>1</v>
-      </c>
-      <c r="C77" s="11">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G77" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>294</v>
+        <v>29</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="J77" s="14">
-        <v>515</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15" customHeight="1">
@@ -9620,13 +9623,13 @@
         <v>151</v>
       </c>
       <c r="B78" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" s="11">
         <v>0</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>295</v>
@@ -9638,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I78" s="13" t="s">
         <v>295</v>
@@ -9652,13 +9655,13 @@
         <v>151</v>
       </c>
       <c r="B79" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" s="15">
         <v>0</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E79" s="22" t="s">
         <v>295</v>
@@ -9670,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I79" s="22" t="s">
         <v>295</v>
@@ -9681,34 +9684,34 @@
     </row>
     <row r="80" spans="1:10" ht="15" customHeight="1">
       <c r="A80" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B80" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C80" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>156</v>
+        <v>297</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>93</v>
+        <v>295</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c r="I80" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J80" s="16" t="s">
-        <v>24</v>
+        <v>295</v>
+      </c>
+      <c r="J80" s="16">
+        <v>515</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15" customHeight="1">
@@ -9716,31 +9719,31 @@
         <v>153</v>
       </c>
       <c r="B81" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>298</v>
+        <v>156</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F81" s="16">
-        <v>547</v>
-      </c>
-      <c r="G81" s="22">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="I81" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="J81" s="16">
-        <v>547</v>
+        <v>24</v>
+      </c>
+      <c r="J81" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15" customHeight="1">
@@ -9751,28 +9754,28 @@
         <v>2</v>
       </c>
       <c r="C82" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" s="22" t="s">
         <v>298</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="F82" s="16">
-        <v>303</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>24</v>
+        <v>547</v>
+      </c>
+      <c r="G82" s="22">
+        <v>1</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="I82" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J82" s="16" t="s">
-        <v>24</v>
+        <v>99</v>
+      </c>
+      <c r="J82" s="16">
+        <v>547</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" customHeight="1">
@@ -9780,31 +9783,31 @@
         <v>153</v>
       </c>
       <c r="B83" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F83" s="16">
-        <v>535</v>
-      </c>
-      <c r="G83" s="22">
-        <v>0</v>
+        <v>303</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>298</v>
+        <v>24</v>
       </c>
       <c r="I83" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="J83" s="16">
-        <v>309</v>
+        <v>24</v>
+      </c>
+      <c r="J83" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15" customHeight="1">
@@ -9812,31 +9815,31 @@
         <v>153</v>
       </c>
       <c r="B84" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="F84" s="16" t="s">
-        <v>97</v>
+        <v>155</v>
+      </c>
+      <c r="F84" s="16">
+        <v>535</v>
       </c>
       <c r="G84" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>98</v>
+        <v>298</v>
       </c>
       <c r="I84" s="22" t="s">
         <v>158</v>
       </c>
       <c r="J84" s="16">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15" customHeight="1">
@@ -9844,25 +9847,25 @@
         <v>153</v>
       </c>
       <c r="B85" s="21">
-        <v>5</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="C85" s="15">
+        <v>2</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="G85" s="22">
         <v>2</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="I85" s="22" t="s">
         <v>158</v>
@@ -9873,34 +9876,34 @@
     </row>
     <row r="86" spans="1:10" ht="15" customHeight="1">
       <c r="A86" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B86" s="21">
-        <v>1</v>
-      </c>
-      <c r="C86" s="15">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D86" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="22">
+        <v>2</v>
+      </c>
+      <c r="H86" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="I86" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="F86" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="G86" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H86" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I86" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J86" s="16" t="s">
-        <v>24</v>
+      <c r="J86" s="16">
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15" customHeight="1">
@@ -9908,19 +9911,19 @@
         <v>157</v>
       </c>
       <c r="B87" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C87" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>299</v>
+        <v>154</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="G87" s="22" t="s">
         <v>24</v>
@@ -9940,19 +9943,19 @@
         <v>157</v>
       </c>
       <c r="B88" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F88" s="16">
-        <v>547</v>
+        <v>101</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="G88" s="22" t="s">
         <v>24</v>
@@ -9969,22 +9972,22 @@
     </row>
     <row r="89" spans="1:10" ht="15" customHeight="1">
       <c r="A89" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B89" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C89" s="15">
         <v>1</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>29</v>
+        <v>298</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="F89" s="16">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="G89" s="22" t="s">
         <v>24</v>
@@ -10004,63 +10007,63 @@
         <v>162</v>
       </c>
       <c r="B90" s="21">
-        <v>4</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C90" s="15">
+        <v>1</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F90" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" s="22">
-        <v>0</v>
+        <v>227</v>
+      </c>
+      <c r="F90" s="16">
+        <v>542</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I90" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="J90" s="16">
-        <v>307</v>
+        <v>24</v>
+      </c>
+      <c r="J90" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1">
       <c r="A91" s="15" t="s">
-        <v>301</v>
+        <v>162</v>
       </c>
       <c r="B91" s="21">
-        <v>1</v>
-      </c>
-      <c r="C91" s="15">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F91" s="16">
+        <v>24</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" s="22">
+        <v>0</v>
+      </c>
+      <c r="H91" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="J91" s="16">
         <v>307</v>
-      </c>
-      <c r="G91" s="22">
-        <v>0</v>
-      </c>
-      <c r="H91" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="I91" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="J91" s="16" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15" customHeight="1">
@@ -10068,31 +10071,31 @@
         <v>301</v>
       </c>
       <c r="B92" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" s="15">
         <v>0</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>302</v>
+        <v>164</v>
       </c>
       <c r="F92" s="16">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="G92" s="22">
         <v>0</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>278</v>
+        <v>163</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>303</v>
+        <v>164</v>
       </c>
       <c r="J92" s="16" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15" customHeight="1">
@@ -10100,31 +10103,31 @@
         <v>301</v>
       </c>
       <c r="B93" s="21">
-        <v>3</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C93" s="15">
+        <v>0</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>24</v>
+        <v>302</v>
+      </c>
+      <c r="F93" s="16">
+        <v>225</v>
       </c>
       <c r="G93" s="22">
         <v>0</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c r="I93" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="J93" s="16">
-        <v>307</v>
+        <v>303</v>
+      </c>
+      <c r="J93" s="16" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15" customHeight="1">
@@ -10132,7 +10135,7 @@
         <v>301</v>
       </c>
       <c r="B94" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>24</v>
@@ -10150,21 +10153,21 @@
         <v>0</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I94" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J94" s="16" t="s">
-        <v>171</v>
+        <v>300</v>
+      </c>
+      <c r="J94" s="16">
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15" customHeight="1">
       <c r="A95" s="15" t="s">
-        <v>166</v>
+        <v>301</v>
       </c>
       <c r="B95" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>24</v>
@@ -10182,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="H95" s="22" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="I95" s="22" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="J95" s="16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15" customHeight="1">
@@ -10196,7 +10199,7 @@
         <v>166</v>
       </c>
       <c r="B96" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>24</v>
@@ -10225,10 +10228,10 @@
     </row>
     <row r="97" spans="1:10" ht="15" customHeight="1">
       <c r="A97" s="15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B97" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>24</v>
@@ -10246,18 +10249,18 @@
         <v>0</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="I97" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="J97" s="16">
-        <v>212</v>
+        <v>168</v>
+      </c>
+      <c r="J97" s="16" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" customHeight="1">
       <c r="A98" s="15" t="s">
-        <v>304</v>
+        <v>166</v>
       </c>
       <c r="B98" s="21">
         <v>4</v>
@@ -10266,281 +10269,281 @@
         <v>0</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="F98" s="16" t="s">
-        <v>165</v>
+        <v>71</v>
+      </c>
+      <c r="F98" s="16">
+        <v>532</v>
       </c>
       <c r="G98" s="22">
         <v>0</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I98" s="22" t="s">
-        <v>307</v>
+        <v>71</v>
       </c>
       <c r="J98" s="16">
-        <v>425</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15" customHeight="1">
       <c r="A99" s="15" t="s">
-        <v>304</v>
+        <v>172</v>
       </c>
       <c r="B99" s="21">
-        <v>5</v>
-      </c>
-      <c r="C99" s="15">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>305</v>
+        <v>24</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>285</v>
+        <v>24</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="G99" s="22" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
       </c>
       <c r="H99" s="22" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="I99" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J99" s="16" t="s">
-        <v>24</v>
+        <v>256</v>
+      </c>
+      <c r="J99" s="16">
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15" customHeight="1">
       <c r="A100" s="15" t="s">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="B100" s="21">
-        <v>1</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="C100" s="15">
+        <v>0</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>24</v>
+        <v>306</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="G100" s="22">
         <v>0</v>
       </c>
       <c r="H100" s="22" t="s">
-        <v>184</v>
+        <v>307</v>
       </c>
       <c r="I100" s="22" t="s">
-        <v>185</v>
+        <v>308</v>
       </c>
       <c r="J100" s="16">
-        <v>214</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15" customHeight="1">
       <c r="A101" s="15" t="s">
-        <v>179</v>
+        <v>305</v>
       </c>
       <c r="B101" s="21">
-        <v>2</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="C101" s="15">
+        <v>0</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>24</v>
+        <v>306</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>24</v>
+        <v>285</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" s="22">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H101" s="22" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="I101" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="J101" s="16">
-        <v>214</v>
+        <v>24</v>
+      </c>
+      <c r="J101" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="15" customHeight="1">
       <c r="A102" s="15" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B102" s="21">
-        <v>5</v>
-      </c>
-      <c r="C102" s="15">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F102" s="16">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="G102" s="22">
         <v>0</v>
       </c>
       <c r="H102" s="22" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I102" s="22" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="J102" s="16">
-        <v>314</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15" customHeight="1">
       <c r="A103" s="15" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B103" s="21">
-        <v>4</v>
-      </c>
-      <c r="C103" s="15">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="F103" s="16">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="G103" s="22">
         <v>0</v>
       </c>
       <c r="H103" s="22" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="I103" s="22" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="J103" s="16">
-        <v>314</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="15" customHeight="1">
       <c r="A104" s="15" t="s">
-        <v>308</v>
+        <v>189</v>
       </c>
       <c r="B104" s="21">
-        <v>3</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="C104" s="15">
+        <v>0</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F104" s="16" t="s">
-        <v>24</v>
+        <v>193</v>
+      </c>
+      <c r="F104" s="16">
+        <v>10</v>
       </c>
       <c r="G104" s="22">
         <v>0</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="I104" s="22" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="J104" s="16">
-        <v>517</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15" customHeight="1">
       <c r="A105" s="15" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="B105" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C105" s="15">
         <v>0</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="F105" s="16">
-        <v>517</v>
-      </c>
-      <c r="G105" s="22" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="G105" s="22">
+        <v>0</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="I105" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J105" s="16" t="s">
-        <v>24</v>
+        <v>193</v>
+      </c>
+      <c r="J105" s="16">
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="15" customHeight="1">
       <c r="A106" s="15" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
       <c r="B106" s="21">
-        <v>2</v>
-      </c>
-      <c r="C106" s="15">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F106" s="16">
-        <v>416</v>
-      </c>
-      <c r="G106" s="22" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="22">
+        <v>0</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I106" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J106" s="16" t="s">
-        <v>24</v>
+        <v>47</v>
+      </c>
+      <c r="J106" s="16">
+        <v>517</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="15" customHeight="1">
@@ -10548,19 +10551,19 @@
         <v>309</v>
       </c>
       <c r="B107" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C107" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F107" s="16">
-        <v>121</v>
+        <v>517</v>
       </c>
       <c r="G107" s="22" t="s">
         <v>24</v>
@@ -10577,77 +10580,77 @@
     </row>
     <row r="108" spans="1:10" ht="15" customHeight="1">
       <c r="A108" s="15" t="s">
-        <v>309</v>
+        <v>199</v>
       </c>
       <c r="B108" s="21">
         <v>2</v>
       </c>
       <c r="C108" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F108" s="16">
+        <v>416</v>
+      </c>
+      <c r="G108" s="22">
+        <v>2</v>
+      </c>
+      <c r="H108" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="I108" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J108" s="16">
         <v>121</v>
-      </c>
-      <c r="G108" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H108" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I108" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J108" s="16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15" customHeight="1">
       <c r="A109" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B109" s="21">
-        <v>4</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C109" s="15">
+        <v>2</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F109" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" s="22">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="F109" s="16">
+        <v>121</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I109" s="22" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="J109" s="16" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="15" customHeight="1">
       <c r="A110" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B110" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" s="22" t="s">
         <v>39</v>
@@ -10673,10 +10676,10 @@
     </row>
     <row r="111" spans="1:10" ht="15" customHeight="1">
       <c r="A111" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B111" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>24</v>
@@ -10705,10 +10708,10 @@
     </row>
     <row r="112" spans="1:10" ht="15" customHeight="1">
       <c r="A112" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B112" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112" s="15">
         <v>1</v>
@@ -10737,10 +10740,10 @@
     </row>
     <row r="113" spans="1:10" ht="15" customHeight="1">
       <c r="A113" s="15" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="B113" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>24</v>
@@ -10755,56 +10758,56 @@
         <v>24</v>
       </c>
       <c r="G113" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113" s="22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I113" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="J113" s="16">
-        <v>412</v>
+        <v>38</v>
+      </c>
+      <c r="J113" s="16" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15" customHeight="1">
       <c r="A114" s="15" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="B114" s="21">
-        <v>4</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="C114" s="15">
+        <v>1</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F114" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" s="22">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="F114" s="16">
+        <v>121</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H114" s="22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I114" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="J114" s="16">
-        <v>412</v>
+        <v>24</v>
+      </c>
+      <c r="J114" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15" customHeight="1">
       <c r="A115" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B115" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>24</v>
@@ -10822,117 +10825,117 @@
         <v>1</v>
       </c>
       <c r="H115" s="22" t="s">
-        <v>226</v>
+        <v>113</v>
       </c>
       <c r="I115" s="22" t="s">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="J115" s="16">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1">
       <c r="A116" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B116" s="21">
         <v>3</v>
       </c>
-      <c r="C116" s="15">
-        <v>0</v>
+      <c r="C116" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D116" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="22">
+        <v>2</v>
+      </c>
+      <c r="H116" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I116" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="E116" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="F116" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H116" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I116" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J116" s="16" t="s">
-        <v>24</v>
+      <c r="J116" s="16">
+        <v>412</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="15" customHeight="1">
       <c r="A117" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B117" s="21">
         <v>4</v>
       </c>
-      <c r="C117" s="15">
-        <v>0</v>
+      <c r="C117" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>298</v>
+        <v>24</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F117" s="16">
-        <v>314</v>
+        <v>24</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="G117" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="I117" s="22" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="J117" s="16">
-        <v>210</v>
+        <v>412</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="15" customHeight="1">
       <c r="A118" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B118" s="21">
-        <v>5</v>
-      </c>
-      <c r="C118" s="15">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>312</v>
+        <v>24</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F118" s="16">
-        <v>314</v>
+        <v>24</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="G118" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" s="22" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="I118" s="22" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="J118" s="16">
-        <v>210</v>
+        <v>306</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="15" customHeight="1">
       <c r="A119" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B119" s="21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>24</v>
@@ -10947,152 +10950,152 @@
         <v>24</v>
       </c>
       <c r="G119" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I119" s="22" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="J119" s="16">
-        <v>210</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="15" customHeight="1">
       <c r="A120" s="15" t="s">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="B120" s="21">
-        <v>1</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="C120" s="15">
+        <v>0</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" s="22">
-        <v>0</v>
+        <v>239</v>
+      </c>
+      <c r="G120" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I120" s="22" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="J120" s="16" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15" customHeight="1">
       <c r="A121" s="15" t="s">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="B121" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C121" s="15">
         <v>0</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E121" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F121" s="16">
+        <v>314</v>
+      </c>
+      <c r="G121" s="22">
+        <v>0</v>
+      </c>
+      <c r="H121" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I121" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="F121" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="G121" s="22">
-        <v>0</v>
-      </c>
-      <c r="H121" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="I121" s="22" t="s">
-        <v>198</v>
-      </c>
       <c r="J121" s="16">
-        <v>9</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="15" customHeight="1">
       <c r="A122" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B122" s="21">
+        <v>5</v>
+      </c>
+      <c r="C122" s="15">
+        <v>0</v>
+      </c>
+      <c r="D122" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="B122" s="21">
-        <v>4</v>
-      </c>
-      <c r="C122" s="15">
-        <v>2</v>
-      </c>
-      <c r="D122" s="22" t="s">
-        <v>40</v>
-      </c>
       <c r="E122" s="22" t="s">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="F122" s="16">
-        <v>413</v>
-      </c>
-      <c r="G122" s="22" t="s">
-        <v>24</v>
+        <v>314</v>
+      </c>
+      <c r="G122" s="22">
+        <v>0</v>
       </c>
       <c r="H122" s="22" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="I122" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J122" s="16" t="s">
-        <v>24</v>
+        <v>205</v>
+      </c>
+      <c r="J122" s="16">
+        <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="15" customHeight="1">
       <c r="A123" s="15" t="s">
-        <v>313</v>
+        <v>203</v>
       </c>
       <c r="B123" s="21">
-        <v>5</v>
-      </c>
-      <c r="C123" s="15">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D123" s="22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G123" s="22" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="G123" s="22">
+        <v>0</v>
       </c>
       <c r="H123" s="22" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="I123" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J123" s="16" t="s">
-        <v>24</v>
+        <v>205</v>
+      </c>
+      <c r="J123" s="16">
+        <v>210</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="15" customHeight="1">
       <c r="A124" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B124" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>24</v>
@@ -11107,53 +11110,53 @@
         <v>24</v>
       </c>
       <c r="G124" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H124" s="22" t="s">
-        <v>316</v>
+        <v>31</v>
       </c>
       <c r="I124" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="J124" s="16">
-        <v>214</v>
+        <v>48</v>
+      </c>
+      <c r="J124" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="15" customHeight="1">
       <c r="A125" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B125" s="21">
+        <v>2</v>
+      </c>
+      <c r="C125" s="15">
+        <v>0</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="G125" s="22">
+        <v>0</v>
+      </c>
+      <c r="H125" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="B125" s="21">
-        <v>5</v>
-      </c>
-      <c r="C125" s="15">
-        <v>2</v>
-      </c>
-      <c r="D125" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="E125" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="F125" s="16">
-        <v>214</v>
-      </c>
-      <c r="G125" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H125" s="22" t="s">
-        <v>24</v>
-      </c>
       <c r="I125" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J125" s="16" t="s">
-        <v>24</v>
+        <v>198</v>
+      </c>
+      <c r="J125" s="16">
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="15" customHeight="1">
       <c r="A126" s="15" t="s">
-        <v>207</v>
+        <v>314</v>
       </c>
       <c r="B126" s="21">
         <v>4</v>
@@ -11162,13 +11165,13 @@
         <v>2</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>317</v>
+        <v>233</v>
       </c>
       <c r="F126" s="16">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="G126" s="22" t="s">
         <v>24</v>
@@ -11185,138 +11188,138 @@
     </row>
     <row r="127" spans="1:10" ht="15" customHeight="1">
       <c r="A127" s="15" t="s">
-        <v>207</v>
+        <v>314</v>
       </c>
       <c r="B127" s="21">
         <v>5</v>
       </c>
-      <c r="C127" s="15" t="s">
-        <v>24</v>
+      <c r="C127" s="15">
+        <v>0</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" s="22">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="G127" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H127" s="22" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="I127" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="J127" s="16">
-        <v>537</v>
+        <v>24</v>
+      </c>
+      <c r="J127" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="15" customHeight="1">
       <c r="A128" s="15" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="B128" s="21">
-        <v>1</v>
-      </c>
-      <c r="C128" s="15">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="F128" s="16">
-        <v>316</v>
+        <v>24</v>
+      </c>
+      <c r="F128" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="G128" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H128" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I128" s="22" t="s">
-        <v>319</v>
+        <v>185</v>
       </c>
       <c r="J128" s="16">
-        <v>10</v>
+        <v>214</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="15" customHeight="1">
       <c r="A129" s="15" t="s">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="B129" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C129" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>211</v>
+        <v>317</v>
       </c>
       <c r="E129" s="22" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="F129" s="16">
-        <v>316</v>
-      </c>
-      <c r="G129" s="22">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="G129" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H129" s="22" t="s">
-        <v>318</v>
+        <v>24</v>
       </c>
       <c r="I129" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="J129" s="16">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="J129" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="15" customHeight="1">
       <c r="A130" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B130" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C130" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="E130" s="22" t="s">
-        <v>212</v>
+        <v>318</v>
       </c>
       <c r="F130" s="16">
-        <v>316</v>
-      </c>
-      <c r="G130" s="22">
-        <v>0</v>
+        <v>427</v>
+      </c>
+      <c r="G130" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H130" s="22" t="s">
-        <v>318</v>
+        <v>24</v>
       </c>
       <c r="I130" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="J130" s="16">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="J130" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="15" customHeight="1">
       <c r="A131" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B131" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C131" s="15" t="s">
         <v>24</v>
@@ -11331,120 +11334,120 @@
         <v>24</v>
       </c>
       <c r="G131" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" s="22" t="s">
-        <v>318</v>
+        <v>208</v>
       </c>
       <c r="I131" s="22" t="s">
-        <v>319</v>
+        <v>121</v>
       </c>
       <c r="J131" s="16">
-        <v>10</v>
+        <v>537</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="15" customHeight="1">
       <c r="A132" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B132" s="21">
-        <v>4</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C132" s="15">
+        <v>0</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="E132" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F132" s="16" t="s">
-        <v>24</v>
+        <v>212</v>
+      </c>
+      <c r="F132" s="16">
+        <v>316</v>
       </c>
       <c r="G132" s="22">
         <v>0</v>
       </c>
       <c r="H132" s="22" t="s">
-        <v>184</v>
+        <v>319</v>
       </c>
       <c r="I132" s="22" t="s">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="J132" s="16">
-        <v>214</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="15" customHeight="1">
       <c r="A133" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B133" s="21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C133" s="15">
         <v>0</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E133" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="F133" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G133" s="22" t="s">
-        <v>24</v>
+        <v>212</v>
+      </c>
+      <c r="F133" s="16">
+        <v>316</v>
+      </c>
+      <c r="G133" s="22">
+        <v>0</v>
       </c>
       <c r="H133" s="22" t="s">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="I133" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J133" s="16" t="s">
-        <v>24</v>
+        <v>320</v>
+      </c>
+      <c r="J133" s="16">
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="15" customHeight="1">
       <c r="A134" s="15" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B134" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C134" s="15">
         <v>0</v>
       </c>
       <c r="D134" s="22" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="E134" s="22" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="F134" s="16">
-        <v>412</v>
+        <v>316</v>
       </c>
       <c r="G134" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" s="22" t="s">
-        <v>27</v>
+        <v>319</v>
       </c>
       <c r="I134" s="22" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="J134" s="16">
-        <v>427</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="15" customHeight="1">
       <c r="A135" s="15" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B135" s="21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>24</v>
@@ -11462,65 +11465,65 @@
         <v>0</v>
       </c>
       <c r="H135" s="22" t="s">
-        <v>65</v>
+        <v>319</v>
       </c>
       <c r="I135" s="22" t="s">
-        <v>66</v>
+        <v>320</v>
       </c>
       <c r="J135" s="16">
-        <v>309</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="15" customHeight="1">
       <c r="A136" s="15" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B136" s="21">
-        <v>1</v>
-      </c>
-      <c r="C136" s="15">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E136" s="22" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G136" s="22" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="G136" s="22">
+        <v>0</v>
       </c>
       <c r="H136" s="22" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="I136" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J136" s="16" t="s">
-        <v>24</v>
+        <v>185</v>
+      </c>
+      <c r="J136" s="16">
+        <v>214</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="15" customHeight="1">
       <c r="A137" s="15" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B137" s="21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C137" s="15">
         <v>0</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="E137" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="F137" s="16">
-        <v>515</v>
+        <v>176</v>
+      </c>
+      <c r="F137" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="G137" s="22" t="s">
         <v>24</v>
@@ -11537,66 +11540,66 @@
     </row>
     <row r="138" spans="1:10" ht="15" customHeight="1">
       <c r="A138" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B138" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C138" s="15">
         <v>0</v>
       </c>
       <c r="D138" s="22" t="s">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c r="E138" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F138" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="G138" s="22" t="s">
-        <v>24</v>
+        <v>116</v>
+      </c>
+      <c r="F138" s="16">
+        <v>412</v>
+      </c>
+      <c r="G138" s="22">
+        <v>1</v>
       </c>
       <c r="H138" s="22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I138" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J138" s="16" t="s">
-        <v>24</v>
+        <v>318</v>
+      </c>
+      <c r="J138" s="16">
+        <v>427</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="15" customHeight="1">
       <c r="A139" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B139" s="21">
-        <v>4</v>
-      </c>
-      <c r="C139" s="15">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D139" s="22" t="s">
-        <v>320</v>
+        <v>24</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F139" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G139" s="22" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="G139" s="22">
+        <v>0</v>
       </c>
       <c r="H139" s="22" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I139" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J139" s="16" t="s">
-        <v>24</v>
+        <v>66</v>
+      </c>
+      <c r="J139" s="16">
+        <v>309</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="15" customHeight="1">
@@ -11604,31 +11607,31 @@
         <v>220</v>
       </c>
       <c r="B140" s="21">
-        <v>5</v>
-      </c>
-      <c r="C140" s="15" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C140" s="15">
+        <v>0</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E140" s="22" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G140" s="22">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="G140" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H140" s="22" t="s">
-        <v>320</v>
+        <v>24</v>
       </c>
       <c r="I140" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="J140" s="16">
-        <v>515</v>
+        <v>24</v>
+      </c>
+      <c r="J140" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="15" customHeight="1">
@@ -11636,103 +11639,103 @@
         <v>220</v>
       </c>
       <c r="B141" s="21">
-        <v>6</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C141" s="15">
+        <v>0</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F141" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G141" s="22">
-        <v>0</v>
+        <v>222</v>
+      </c>
+      <c r="F141" s="16">
+        <v>515</v>
+      </c>
+      <c r="G141" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H141" s="22" t="s">
-        <v>320</v>
+        <v>24</v>
       </c>
       <c r="I141" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="J141" s="16">
-        <v>515</v>
+        <v>24</v>
+      </c>
+      <c r="J141" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="15" customHeight="1">
       <c r="A142" s="15" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B142" s="21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C142" s="15">
         <v>0</v>
       </c>
       <c r="D142" s="22" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="F142" s="16">
-        <v>515</v>
-      </c>
-      <c r="G142" s="22">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="F142" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="G142" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H142" s="22" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="I142" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="J142" s="16">
-        <v>542</v>
+        <v>24</v>
+      </c>
+      <c r="J142" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="15" customHeight="1">
       <c r="A143" s="15" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B143" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C143" s="15">
         <v>0</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="F143" s="16">
-        <v>515</v>
-      </c>
-      <c r="G143" s="22">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="F143" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G143" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H143" s="22" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="I143" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="J143" s="16">
-        <v>542</v>
+        <v>24</v>
+      </c>
+      <c r="J143" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="15" customHeight="1">
       <c r="A144" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B144" s="21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C144" s="15" t="s">
         <v>24</v>
@@ -11750,117 +11753,117 @@
         <v>0</v>
       </c>
       <c r="H144" s="22" t="s">
-        <v>60</v>
+        <v>321</v>
       </c>
       <c r="I144" s="22" t="s">
-        <v>61</v>
+        <v>323</v>
       </c>
       <c r="J144" s="16">
-        <v>416</v>
+        <v>515</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="15" customHeight="1">
       <c r="A145" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B145" s="21">
-        <v>1</v>
-      </c>
-      <c r="C145" s="15">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="E145" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="F145" s="16">
-        <v>304</v>
-      </c>
-      <c r="G145" s="22" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="F145" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G145" s="22">
+        <v>0</v>
       </c>
       <c r="H145" s="22" t="s">
-        <v>24</v>
+        <v>321</v>
       </c>
       <c r="I145" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J145" s="16" t="s">
-        <v>24</v>
+        <v>323</v>
+      </c>
+      <c r="J145" s="16">
+        <v>515</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="15" customHeight="1">
       <c r="A146" s="15" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B146" s="21">
         <v>1</v>
       </c>
-      <c r="C146" s="15" t="s">
-        <v>24</v>
+      <c r="C146" s="15">
+        <v>0</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>24</v>
+        <v>324</v>
       </c>
       <c r="E146" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F146" s="16" t="s">
-        <v>24</v>
+        <v>222</v>
+      </c>
+      <c r="F146" s="16">
+        <v>515</v>
       </c>
       <c r="G146" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" s="22" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="I146" s="22" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J146" s="16">
-        <v>205</v>
+        <v>542</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="15" customHeight="1">
       <c r="A147" s="15" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B147" s="21">
-        <v>2</v>
-      </c>
-      <c r="C147" s="15" t="s">
-        <v>24</v>
+        <v>3</v>
+      </c>
+      <c r="C147" s="15">
+        <v>0</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F147" s="16" t="s">
-        <v>24</v>
+        <v>222</v>
+      </c>
+      <c r="F147" s="16">
+        <v>515</v>
       </c>
       <c r="G147" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H147" s="22" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="I147" s="22" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="J147" s="16">
-        <v>307</v>
+        <v>542</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="15" customHeight="1">
       <c r="A148" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B148" s="21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C148" s="15" t="s">
         <v>24</v>
@@ -11875,36 +11878,36 @@
         <v>24</v>
       </c>
       <c r="G148" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H148" s="22" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I148" s="22" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="J148" s="16">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="15" customHeight="1">
       <c r="A149" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B149" s="21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C149" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c r="E149" s="22" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="F149" s="16">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="G149" s="22" t="s">
         <v>24</v>
@@ -11924,263 +11927,263 @@
         <v>230</v>
       </c>
       <c r="B150" s="21">
-        <v>6</v>
-      </c>
-      <c r="C150" s="15">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E150" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="F150" s="16">
-        <v>306</v>
-      </c>
-      <c r="G150" s="22" t="s">
-        <v>24</v>
+        <v>24</v>
+      </c>
+      <c r="F150" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G150" s="22">
+        <v>0</v>
       </c>
       <c r="H150" s="22" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I150" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J150" s="16" t="s">
-        <v>24</v>
+        <v>231</v>
+      </c>
+      <c r="J150" s="16">
+        <v>205</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="15" customHeight="1">
       <c r="A151" s="15" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B151" s="21">
-        <v>4</v>
-      </c>
-      <c r="C151" s="15">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C151" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>325</v>
+        <v>24</v>
       </c>
       <c r="E151" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F151" s="16">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="F151" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="G151" s="22">
         <v>0</v>
       </c>
       <c r="H151" s="22" t="s">
-        <v>236</v>
+        <v>25</v>
       </c>
       <c r="I151" s="22" t="s">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c r="J151" s="16">
-        <v>206</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="15" customHeight="1">
       <c r="A152" s="15" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B152" s="21">
-        <v>5</v>
-      </c>
-      <c r="C152" s="15">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C152" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="E152" s="22" t="s">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="G152" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H152" s="22" t="s">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="I152" s="22" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J152" s="16">
-        <v>206</v>
+        <v>413</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="15" customHeight="1">
       <c r="A153" s="15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B153" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C153" s="15">
         <v>0</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>326</v>
+        <v>63</v>
       </c>
       <c r="E153" s="22" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="F153" s="16">
-        <v>9</v>
-      </c>
-      <c r="G153" s="22">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="G153" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H153" s="22" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="I153" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J153" s="16">
-        <v>206</v>
+        <v>24</v>
+      </c>
+      <c r="J153" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="15" customHeight="1">
       <c r="A154" s="15" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B154" s="21">
-        <v>3</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="C154" s="15">
+        <v>2</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E154" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F154" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G154" s="22">
-        <v>0</v>
+        <v>234</v>
+      </c>
+      <c r="F154" s="16">
+        <v>306</v>
+      </c>
+      <c r="G154" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H154" s="22" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="I154" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="J154" s="16">
-        <v>206</v>
+        <v>24</v>
+      </c>
+      <c r="J154" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="15" customHeight="1">
       <c r="A155" s="15" t="s">
-        <v>327</v>
+        <v>235</v>
       </c>
       <c r="B155" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C155" s="15">
         <v>0</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>31</v>
+        <v>326</v>
       </c>
       <c r="E155" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="F155" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="G155" s="22" t="s">
-        <v>24</v>
+        <v>198</v>
+      </c>
+      <c r="F155" s="16">
+        <v>9</v>
+      </c>
+      <c r="G155" s="22">
+        <v>0</v>
       </c>
       <c r="H155" s="22" t="s">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="I155" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J155" s="16" t="s">
-        <v>24</v>
+        <v>237</v>
+      </c>
+      <c r="J155" s="16">
+        <v>206</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="15" customHeight="1">
       <c r="A156" s="15" t="s">
-        <v>327</v>
+        <v>235</v>
       </c>
       <c r="B156" s="21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C156" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>329</v>
+        <v>236</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="F156" s="16">
-        <v>423</v>
-      </c>
-      <c r="G156" s="22" t="s">
-        <v>24</v>
+        <v>237</v>
+      </c>
+      <c r="F156" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="G156" s="22">
+        <v>0</v>
       </c>
       <c r="H156" s="22" t="s">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="I156" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J156" s="16" t="s">
-        <v>24</v>
+        <v>237</v>
+      </c>
+      <c r="J156" s="16">
+        <v>206</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="15" customHeight="1">
       <c r="A157" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B157" s="21">
+        <v>2</v>
+      </c>
+      <c r="C157" s="15">
+        <v>0</v>
+      </c>
+      <c r="D157" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="B157" s="21">
-        <v>2</v>
-      </c>
-      <c r="C157" s="15">
-        <v>2</v>
-      </c>
-      <c r="D157" s="22" t="s">
-        <v>329</v>
-      </c>
       <c r="E157" s="22" t="s">
-        <v>331</v>
+        <v>198</v>
       </c>
       <c r="F157" s="16">
-        <v>424</v>
-      </c>
-      <c r="G157" s="22" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="G157" s="22">
+        <v>0</v>
       </c>
       <c r="H157" s="22" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="I157" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J157" s="16" t="s">
-        <v>24</v>
+        <v>237</v>
+      </c>
+      <c r="J157" s="16">
+        <v>206</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="15" customHeight="1">
       <c r="A158" s="15" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="B158" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C158" s="15" t="s">
         <v>24</v>
@@ -12198,140 +12201,268 @@
         <v>0</v>
       </c>
       <c r="H158" s="22" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="I158" s="22" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="J158" s="16">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="15" customHeight="1">
       <c r="A159" s="15" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="B159" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159" s="15">
         <v>0</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="E159" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F159" s="16">
-        <v>307</v>
-      </c>
-      <c r="G159" s="22">
-        <v>0</v>
+        <v>329</v>
+      </c>
+      <c r="F159" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G159" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H159" s="22" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I159" s="22" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="J159" s="16" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="15" customHeight="1">
       <c r="A160" s="15" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
       <c r="B160" s="21">
-        <v>4</v>
-      </c>
-      <c r="C160" s="15" t="s">
-        <v>24</v>
+        <v>2</v>
+      </c>
+      <c r="C160" s="15">
+        <v>1</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="E160" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F160" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G160" s="22">
-        <v>2</v>
+        <v>331</v>
+      </c>
+      <c r="F160" s="16">
+        <v>423</v>
+      </c>
+      <c r="G160" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="H160" s="22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I160" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="J160" s="16">
-        <v>413</v>
+        <v>24</v>
+      </c>
+      <c r="J160" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="15" customHeight="1">
       <c r="A161" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B161" s="21">
+        <v>2</v>
+      </c>
+      <c r="C161" s="15">
+        <v>2</v>
+      </c>
+      <c r="D161" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="E161" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="F161" s="16">
+        <v>424</v>
+      </c>
+      <c r="G161" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H161" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I161" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J161" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="15" customHeight="1">
+      <c r="A162" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B162" s="21">
+        <v>4</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F162" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G162" s="22">
+        <v>0</v>
+      </c>
+      <c r="H162" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="I162" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="J162" s="16">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="15" customHeight="1">
+      <c r="A163" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B163" s="21">
+        <v>2</v>
+      </c>
+      <c r="C163" s="15">
+        <v>0</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E163" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F163" s="16">
+        <v>307</v>
+      </c>
+      <c r="G163" s="22">
+        <v>0</v>
+      </c>
+      <c r="H163" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="I163" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J163" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B164" s="21">
+        <v>4</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E164" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F164" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G164" s="22">
+        <v>2</v>
+      </c>
+      <c r="H164" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I164" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J164" s="16">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B161" s="21">
+      <c r="B165" s="21">
         <v>4</v>
       </c>
-      <c r="C161" s="15">
-        <v>0</v>
-      </c>
-      <c r="D161" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="E161" s="22" t="s">
+      <c r="C165" s="15">
+        <v>0</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="E165" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="F161" s="16" t="s">
+      <c r="F165" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="G161" s="22">
-        <v>0</v>
-      </c>
-      <c r="H161" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="I161" s="22" t="s">
+      <c r="G165" s="22">
+        <v>0</v>
+      </c>
+      <c r="H165" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="I165" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="J161" s="16">
+      <c r="J165" s="16">
         <v>515</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15" customHeight="1">
-      <c r="A162" s="17" t="s">
+    <row r="166" spans="1:10">
+      <c r="A166" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B162" s="20">
+      <c r="B166" s="20">
         <v>5</v>
       </c>
-      <c r="C162" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D162" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E162" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F162" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G162" s="18">
-        <v>0</v>
-      </c>
-      <c r="H162" s="18" t="s">
+      <c r="C166" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E166" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F166" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G166" s="18">
+        <v>0</v>
+      </c>
+      <c r="H166" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="I162" s="18" t="s">
+      <c r="I166" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J162" s="19" t="s">
+      <c r="J166" s="19" t="s">
         <v>49</v>
       </c>
     </row>
